--- a/QA_Weekly_TASK1_(Code_Competence_1)/Praktikum/CODE_Competence_Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
+++ b/QA_Weekly_TASK1_(Code_Competence_1)/Praktikum/CODE_Competence_Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.MATERI KULIAH\SEMESTER-8_QE_ALTERRA\QE_Muhamad-Nur-Fajjri-Z\QA_Weekly_TASK1_(Code_Competence_1)\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3018B0A-B6BA-413E-807D-09212CD7EBFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A2B006-C8E9-49BC-AF5F-3B98E5295263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Testing fitur pada halaman utama POS</t>
+  </si>
+  <si>
+    <t>Abnormal testing</t>
+  </si>
+  <si>
+    <t>User tidak dapat mengakses web, karena API tidak berjalan.</t>
   </si>
 </sst>
 </file>
@@ -342,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -475,6 +481,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,8 +530,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>188464</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>14493</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -572,15 +584,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>351637</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57718</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1877</xdr:rowOff>
+      <xdr:colOff>32870</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -603,7 +615,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24848" y="4683441"/>
+          <a:off x="0" y="4608895"/>
           <a:ext cx="5400000" cy="1472414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -913,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:K33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1198,7 +1210,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1233,7 @@
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -1234,7 +1246,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41">
         <v>1</v>
       </c>
@@ -1257,7 +1269,7 @@
       <c r="J18" s="45"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41">
         <v>2</v>
       </c>
@@ -1280,7 +1292,7 @@
       <c r="J19" s="45"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="41">
         <v>3</v>
       </c>
@@ -1303,7 +1315,7 @@
       <c r="J20" s="45"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41">
         <v>4</v>
       </c>
@@ -1326,12 +1338,18 @@
       <c r="J21" s="45"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
+    <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="48"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1351,117 +1369,130 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="12"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="12"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B34" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="35" t="s">
+      <c r="E34" s="36"/>
+      <c r="F34" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="35" t="s">
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41">
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="41">
         <v>1</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="42" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="44"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="44"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="12"/>
+    <row r="38" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F39" s="40"/>
+    <row r="39" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="12"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="12"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F42" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:H32"/>
-    <mergeCell ref="I31:K32"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="F34:H35"/>
+    <mergeCell ref="I34:K35"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
@@ -1520,13 +1551,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1542,13 +1573,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>657225</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>409575</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1564,13 +1595,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>

--- a/QA_Weekly_TASK1_(Code_Competence_1)/Praktikum/CODE_Competence_Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
+++ b/QA_Weekly_TASK1_(Code_Competence_1)/Praktikum/CODE_Competence_Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.MATERI KULIAH\SEMESTER-8_QE_ALTERRA\QE_Muhamad-Nur-Fajjri-Z\QA_Weekly_TASK1_(Code_Competence_1)\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A2B006-C8E9-49BC-AF5F-3B98E5295263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE879942-411E-4E4F-A966-2F18570272F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -141,13 +141,201 @@
     <t>Mencoba login tanpa username dan password</t>
   </si>
   <si>
-    <t>Testing fitur pada halaman utama POS</t>
-  </si>
-  <si>
     <t>Abnormal testing</t>
   </si>
   <si>
     <t>User tidak dapat mengakses web, karena API tidak berjalan.</t>
+  </si>
+  <si>
+    <t>Testing fitur item kits dari homepage POS</t>
+  </si>
+  <si>
+    <t>Membuka menu item kits</t>
+  </si>
+  <si>
+    <t>Menu terbuka</t>
+  </si>
+  <si>
+    <t>Memilih opsi generate barcode dan delete tanpa pilih item</t>
+  </si>
+  <si>
+    <t>tidak berjalan</t>
+  </si>
+  <si>
+    <t>barcode berjalan atau item terhapus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item kits terbuat </t>
+  </si>
+  <si>
+    <t>Membuat item kits (ada fill barcode, kitname, search kit, discount type, price option, print option, description)</t>
+  </si>
+  <si>
+    <t>Mencari nama item kits</t>
+  </si>
+  <si>
+    <t>item kits ditemukan</t>
+  </si>
+  <si>
+    <t>Export data ke local</t>
+  </si>
+  <si>
+    <t>extensi program terbuat (.xml)</t>
+  </si>
+  <si>
+    <t>Testing fitur laporan dari homepage POS</t>
+  </si>
+  <si>
+    <t>Testing fitur pemasok dari homepage POS</t>
+  </si>
+  <si>
+    <t>Testing fitur item dari homepage POS</t>
+  </si>
+  <si>
+    <t>Membuka menu item</t>
+  </si>
+  <si>
+    <t>Mencari nama item</t>
+  </si>
+  <si>
+    <t>extensi program terbuat (.JSON)</t>
+  </si>
+  <si>
+    <t>Memilih menu Graphic Reports</t>
+  </si>
+  <si>
+    <t>Memilih menu Summary Reports</t>
+  </si>
+  <si>
+    <t>Memilih menu Detailed reports</t>
+  </si>
+  <si>
+    <t>Memilih menu Inventory Reports</t>
+  </si>
+  <si>
+    <t>Memilih menu Categories
+Customers
+discounts
+Employees
+Bills
+Articles
+Payments
+Sales
+Sales taxes
+Suppliers
+Taxes pada graphic report</t>
+  </si>
+  <si>
+    <t>Memilih menu Categories
+Customers
+discounts
+Employees
+Bills
+Articles
+Payments
+Sales
+Sales taxes
+Suppliers
+Taxes pada Summary report</t>
+  </si>
+  <si>
+    <t>Memilih menu Sales
+Tickets
+Customers
+discounts
+Employees
+Suppliers pada menu Detailed reports</t>
+  </si>
+  <si>
+    <t>Memilih menu Low inventory
+Inventory Summary pada Iventory report</t>
+  </si>
+  <si>
+    <t>Mengenerate report pada setiap menu</t>
+  </si>
+  <si>
+    <t>report terproses dan keluar output data</t>
+  </si>
+  <si>
+    <t>Memilih opsi generate barcode dan delete dengan pilih item</t>
+  </si>
+  <si>
+    <t>delete berjalan namun email tidak terhubung</t>
+  </si>
+  <si>
+    <t>Membuka menu pemasok</t>
+  </si>
+  <si>
+    <t>Membuka menu reports (laporan)</t>
+  </si>
+  <si>
+    <t>report terbuat</t>
+  </si>
+  <si>
+    <t>Membuat report .csv</t>
+  </si>
+  <si>
+    <t>Mengubah data pemasok</t>
+  </si>
+  <si>
+    <t>Memilih opsi email dan delete dengan pilihan data pemasok</t>
+  </si>
+  <si>
+    <t>Memilih opsi email dan delete tanpa pilih data pemasok</t>
+  </si>
+  <si>
+    <t>data tidak berubah</t>
+  </si>
+  <si>
+    <t>data berubah</t>
+  </si>
+  <si>
+    <t>delete dan email berjalan (mengeluarkan output)</t>
+  </si>
+  <si>
+    <t>Mengubah data item</t>
+  </si>
+  <si>
+    <t>Melakukan sorting data</t>
+  </si>
+  <si>
+    <t>data tersorting</t>
+  </si>
+  <si>
+    <t>Testing fitur Sales dari homepage POS</t>
+  </si>
+  <si>
+    <t>Membuka menu penjualan</t>
+  </si>
+  <si>
+    <t>Membuat report sales Article name</t>
+  </si>
+  <si>
+    <t>Article name terbuat</t>
+  </si>
+  <si>
+    <t>Memberikan diskon pada Article name</t>
+  </si>
+  <si>
+    <t>diskon terbuat</t>
+  </si>
+  <si>
+    <t>Menghapus client data</t>
+  </si>
+  <si>
+    <t>client data terhapus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membatalkan sales </t>
+  </si>
+  <si>
+    <t>sales batal output keluar</t>
+  </si>
+  <si>
+    <t>Mengubah data mode dan data delivery atau take away</t>
+  </si>
+  <si>
+    <t>data tampil</t>
   </si>
 </sst>
 </file>
@@ -157,7 +345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,11 +386,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -348,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -385,6 +568,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -400,15 +599,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -463,10 +653,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -476,17 +662,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,18 +711,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,11 +1119,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
-  <dimension ref="A1:P42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -946,50 +1141,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1005,10 +1200,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1037,36 +1232,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31">
+      <c r="E6" s="33"/>
+      <c r="F6" s="34">
         <v>44983</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="26"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
@@ -1084,44 +1279,44 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
       <c r="M9" s="2"/>
       <c r="P9"/>
     </row>
@@ -1129,56 +1324,56 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1211,143 +1406,143 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="35" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41">
+      <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41">
+      <c r="A19" s="15">
         <v>2</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="46"/>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="44"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41">
+      <c r="A20" s="15">
         <v>3</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="46"/>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="44"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41">
+      <c r="A21" s="15">
         <v>4</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="46"/>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="44"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>40</v>
       </c>
       <c r="C23" s="48"/>
       <c r="M23" s="2"/>
@@ -1385,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1402,88 +1597,1302 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="39"/>
+      <c r="D34" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="35" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="35" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41">
+    <row r="36" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
         <v>1</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="44"/>
+      <c r="B36" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="45"/>
+      <c r="F36" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="45"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>2</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="52"/>
+      <c r="K37" s="51"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>3</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="52"/>
+      <c r="K38" s="51"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>4</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="52"/>
+      <c r="K39" s="51"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="12"/>
+    <row r="40" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>5</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="52"/>
+      <c r="K40" s="51"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="12"/>
+    <row r="41" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>6</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="52"/>
+      <c r="K41" s="51"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F42" s="40"/>
+    <row r="42" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>7</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="52"/>
+      <c r="K42" s="51"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="53"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+    </row>
+    <row r="47" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+    </row>
+    <row r="48" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>1</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="47"/>
+      <c r="K48" s="45"/>
+    </row>
+    <row r="49" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <v>2</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="F49" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="52"/>
+      <c r="K49" s="51"/>
+    </row>
+    <row r="50" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>3</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="51"/>
+      <c r="F50" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="52"/>
+      <c r="K50" s="51"/>
+    </row>
+    <row r="51" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
+        <v>4</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="51"/>
+      <c r="F51" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="52"/>
+      <c r="K51" s="51"/>
+    </row>
+    <row r="52" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <v>5</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="51"/>
+      <c r="F52" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="52"/>
+      <c r="K52" s="51"/>
+    </row>
+    <row r="53" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>6</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="51"/>
+      <c r="F53" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="52"/>
+      <c r="K53" s="51"/>
+    </row>
+    <row r="54" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <v>7</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="51"/>
+      <c r="F54" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="52"/>
+      <c r="K54" s="51"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="D58" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="39"/>
+      <c r="F58" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+    </row>
+    <row r="59" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+    </row>
+    <row r="60" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
+        <v>1</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="47"/>
+      <c r="K60" s="45"/>
+    </row>
+    <row r="61" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
+        <v>2</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="45"/>
+      <c r="F61" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="52"/>
+      <c r="K61" s="51"/>
+    </row>
+    <row r="62" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
+        <v>3</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="45"/>
+      <c r="F62" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="52"/>
+      <c r="K62" s="51"/>
+    </row>
+    <row r="63" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
+        <v>4</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="45"/>
+      <c r="F63" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="52"/>
+      <c r="K63" s="51"/>
+    </row>
+    <row r="64" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
+        <v>5</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="45"/>
+      <c r="F64" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="52"/>
+      <c r="K64" s="51"/>
+    </row>
+    <row r="65" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
+        <v>6</v>
+      </c>
+      <c r="B65" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="45"/>
+      <c r="F65" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="52"/>
+      <c r="K65" s="51"/>
+    </row>
+    <row r="66" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
+        <v>7</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="45"/>
+      <c r="F66" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" s="52"/>
+      <c r="K66" s="51"/>
+    </row>
+    <row r="67" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
+        <v>8</v>
+      </c>
+      <c r="B67" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="55"/>
+      <c r="D67" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="45"/>
+      <c r="F67" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" s="52"/>
+      <c r="K67" s="51"/>
+    </row>
+    <row r="68" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
+        <v>9</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="55"/>
+      <c r="D68" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="45"/>
+      <c r="F68" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="52"/>
+      <c r="K68" s="51"/>
+    </row>
+    <row r="69" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
+        <v>10</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="45"/>
+      <c r="F69" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" s="52"/>
+      <c r="K69" s="51"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="53"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+    </row>
+    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+    </row>
+    <row r="77" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
+        <v>1</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="43"/>
+      <c r="D77" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="45"/>
+      <c r="F77" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" s="47"/>
+      <c r="K77" s="45"/>
+    </row>
+    <row r="78" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
+        <v>2</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="49"/>
+      <c r="D78" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="51"/>
+      <c r="F78" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="52"/>
+      <c r="K78" s="51"/>
+    </row>
+    <row r="79" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="15">
+        <v>3</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="49"/>
+      <c r="D79" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="51"/>
+      <c r="F79" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79" s="52"/>
+      <c r="K79" s="51"/>
+    </row>
+    <row r="80" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="15">
+        <v>4</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="49"/>
+      <c r="D80" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="51"/>
+      <c r="F80" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" s="52"/>
+      <c r="K80" s="51"/>
+    </row>
+    <row r="81" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="15">
+        <v>5</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="49"/>
+      <c r="D81" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="51"/>
+      <c r="F81" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J81" s="52"/>
+      <c r="K81" s="51"/>
+    </row>
+    <row r="82" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="15">
+        <v>6</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="49"/>
+      <c r="D82" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="51"/>
+      <c r="F82" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" s="52"/>
+      <c r="K82" s="51"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="87" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="39"/>
+      <c r="D87" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="39"/>
+      <c r="F87" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+    </row>
+    <row r="88" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+    </row>
+    <row r="89" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="15">
+        <v>1</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="43"/>
+      <c r="D89" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="45"/>
+      <c r="F89" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J89" s="47"/>
+      <c r="K89" s="45"/>
+    </row>
+    <row r="90" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="15">
+        <v>2</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="49"/>
+      <c r="D90" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="51"/>
+      <c r="F90" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" s="52"/>
+      <c r="K90" s="51"/>
+    </row>
+    <row r="91" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="15">
+        <v>3</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="49"/>
+      <c r="D91" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="51"/>
+      <c r="F91" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J91" s="52"/>
+      <c r="K91" s="51"/>
+    </row>
+    <row r="92" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="15">
+        <v>4</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="49"/>
+      <c r="D92" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="51"/>
+      <c r="F92" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J92" s="52"/>
+      <c r="K92" s="51"/>
+    </row>
+    <row r="93" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="15">
+        <v>5</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="49"/>
+      <c r="D93" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="51"/>
+      <c r="F93" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J93" s="52"/>
+      <c r="K93" s="51"/>
+    </row>
+    <row r="94" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15">
+        <v>6</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="49"/>
+      <c r="D94" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="51"/>
+      <c r="F94" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J94" s="52"/>
+      <c r="K94" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="216">
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:C88"/>
+    <mergeCell ref="D87:E88"/>
+    <mergeCell ref="F87:H88"/>
+    <mergeCell ref="I87:K88"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:C76"/>
+    <mergeCell ref="D75:E76"/>
+    <mergeCell ref="F75:H76"/>
+    <mergeCell ref="I75:K76"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:E59"/>
+    <mergeCell ref="F58:H59"/>
+    <mergeCell ref="I58:K59"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:H47"/>
+    <mergeCell ref="I46:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I34:K35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
@@ -1491,7 +2900,6 @@
     <mergeCell ref="B34:C35"/>
     <mergeCell ref="D34:E35"/>
     <mergeCell ref="F34:H35"/>
-    <mergeCell ref="I34:K35"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
@@ -1505,7 +2913,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="A16:A17"/>
@@ -1527,90 +2934,18 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId4" name="Option Button 10">
-              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="PASS_x000a_FAIL_x000a_SUSPENDED">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId5" name="Option Button 11">
-              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="PASS_x000a_FAIL_x000a_SUSPENDED">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>409575</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId6" name="Option Button 12">
-              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="PASS_x000a_FAIL_x000a_SUSPENDED">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>